--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-493322.1294968763</v>
+        <v>-495890.5529358235</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0091537477815</v>
@@ -1385,10 +1385,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65571344844564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369545</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>132.1266249591693</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>327.3800679881167</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3167223315733</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>87.2906905841316</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1534,19 +1534,19 @@
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556696</v>
+        <v>62.01093634556703</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
-        <v>58.24248870161775</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
         <v>259.2906218811326</v>
@@ -1591,10 +1591,10 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
         <v>379.9548294172311</v>
@@ -1625,7 +1625,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65571344844564</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>121.6334133137108</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>227.5767723236404</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3167223315733</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>91.90011687443074</v>
       </c>
       <c r="D16" t="n">
         <v>121.694256693732</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>139.1045919345479</v>
@@ -1783,7 +1783,7 @@
         <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535776</v>
+        <v>69.43120408535779</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556699</v>
+        <v>62.01093634556703</v>
       </c>
       <c r="S16" t="n">
-        <v>97.49542101278482</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
         <v>192.6277329516889</v>
@@ -1828,10 +1828,10 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>291.3765388279347</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.034017129189</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
         <v>332.9796927986386</v>
@@ -1859,7 +1859,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5301749808611</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510299</v>
+        <v>35.29140884510295</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>124.848365702991</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3446157743402</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8347477353962</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129808</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388645</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555499</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513951</v>
+        <v>137.135930067765</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349633</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5246950798584</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595538</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124794</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676525</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.45260971959874</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8726723883691</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6525963330964</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2412903807552</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6266453935182</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.688300409022</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
-        <v>308.034017129189</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
         <v>332.9796927986386</v>
@@ -2096,7 +2096,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>200.0158551667787</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510299</v>
+        <v>35.29140884510296</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965473</v>
@@ -2138,16 +2138,16 @@
         <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8559055270621</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743402</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8347477353962</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>275.1391914579286</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388645</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555499</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513951</v>
+        <v>74.71912007513947</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349633</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F22" t="n">
-        <v>133.9415050724827</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595538</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124794</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676525</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697449</v>
+        <v>15.03579972697446</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8726723883691</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6525963330964</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2412903807552</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6266453935182</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385891</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.688300409022</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E23" t="n">
-        <v>308.034017129189</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F23" t="n">
         <v>332.9796927986386</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510299</v>
+        <v>35.29140884510295</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
@@ -2375,16 +2375,16 @@
         <v>177.0988190158291</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8559055270621</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3446157743402</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8347477353962</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129808</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9356272388645</v>
+        <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555499</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513951</v>
+        <v>74.71912007513947</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349633</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5246950798584</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595538</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124794</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I25" t="n">
-        <v>84.87287745938953</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697449</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8726723883691</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330964</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2412903807552</v>
+        <v>178.2412903807551</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6266453935182</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385897</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.688300409022</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124593</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958322</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.621200509674</v>
+        <v>1823.742853252182</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.851831371768</v>
+        <v>1481.973484114276</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.779280567523</v>
+        <v>1481.973484114276</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1841757717838</v>
+        <v>1123.378379318537</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3914187846816</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31586739020929</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938773</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508300938773</v>
+        <v>3146.821221795897</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170972015115</v>
+        <v>3146.821221795897</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.301232474049</v>
+        <v>2842.951482254832</v>
       </c>
       <c r="W11" t="n">
-        <v>2578.839995141555</v>
+        <v>2517.375974787223</v>
       </c>
       <c r="X11" t="n">
-        <v>2232.56738468298</v>
+        <v>2186.689037425489</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.621200509674</v>
+        <v>1823.742853252182</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064626</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158134</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.5648461288647</v>
+        <v>712.1050774654836</v>
       </c>
       <c r="C13" t="n">
-        <v>639.8218110034632</v>
+        <v>570.3620423400821</v>
       </c>
       <c r="D13" t="n">
-        <v>516.8983193936328</v>
+        <v>447.4385507302518</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1783736137452</v>
+        <v>326.7186049503641</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137452</v>
+        <v>207.0218052549591</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909695</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601982</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
@@ -5224,25 +5224,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567743</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T13" t="n">
-        <v>1854.549738899442</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U13" t="n">
-        <v>1592.640019827591</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1592.640019827591</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.415997593136</v>
+        <v>1194.673326633467</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.619594497624</v>
+        <v>993.8769235379546</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.020163156599</v>
+        <v>800.2774921969298</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1439.647179164757</v>
+        <v>2154.815404056427</v>
       </c>
       <c r="C14" t="n">
-        <v>1439.647179164757</v>
+        <v>1813.046034918521</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.574628360511</v>
+        <v>1481.973484114276</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574628360511</v>
+        <v>1123.378379318537</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7818713734093</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="G14" t="n">
-        <v>336.902569020911</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938772</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125499</v>
+        <v>3202.743787958959</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.723701125499</v>
+        <v>3202.743787958959</v>
       </c>
       <c r="V14" t="n">
-        <v>2833.848173525862</v>
+        <v>3202.743787958959</v>
       </c>
       <c r="W14" t="n">
-        <v>2508.272666058254</v>
+        <v>2877.16828049135</v>
       </c>
       <c r="X14" t="n">
-        <v>2162.000055599679</v>
+        <v>2877.16828049135</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.053871426373</v>
+        <v>2514.222096318044</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.79866491898</v>
+        <v>611.9302661068389</v>
       </c>
       <c r="C16" t="n">
-        <v>638.79866491898</v>
+        <v>519.1018652235755</v>
       </c>
       <c r="D16" t="n">
-        <v>515.87517330915</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="E16" t="n">
-        <v>515.87517330915</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137451</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909694</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113326</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946792520983</v>
@@ -5449,37 +5449,37 @@
         <v>1451.007173388083</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938411</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1979.393048693173</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.819581065205</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U16" t="n">
-        <v>1522.909861993353</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V16" t="n">
-        <v>1295.418521589972</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.194499355517</v>
+        <v>967.1819862300852</v>
       </c>
       <c r="X16" t="n">
-        <v>832.3980962600046</v>
+        <v>766.3855831345732</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.79866491898</v>
+        <v>766.3855831345732</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.332808477248</v>
+        <v>1571.69093755379</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.013072287415</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="D17" t="n">
-        <v>1197.390154431243</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>886.2446825835777</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F17" t="n">
-        <v>549.9015585445488</v>
+        <v>629.8826054772624</v>
       </c>
       <c r="G17" t="n">
-        <v>209.4718891401239</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957933886845</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021647</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>3032.513506715595</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.735271046061</v>
+        <v>2776.093400122603</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.609396526525</v>
+        <v>2497.967525603068</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.786419016024</v>
+        <v>2199.144548092566</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.289867790792</v>
+        <v>1883.647996867333</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877571</v>
+        <v>632.1614980085905</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104288</v>
+        <v>537.8680958312623</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486717</v>
+        <v>399.3469543486714</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168572</v>
+        <v>326.076641516857</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695255</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G19" t="n">
-        <v>160.769418894823</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325945</v>
+        <v>89.19501286325941</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.059588775767</v>
+        <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.016485353172</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673276</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.432564549499</v>
+        <v>1433.479847370332</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.39085709419</v>
+        <v>1253.438139915023</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078082</v>
+        <v>1038.663750628642</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603695</v>
+        <v>885.3169804812029</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674181</v>
+        <v>739.1671820882515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1834.409253109489</v>
+        <v>1855.313855409961</v>
       </c>
       <c r="C20" t="n">
-        <v>1540.089516919656</v>
+        <v>1560.994119220128</v>
       </c>
       <c r="D20" t="n">
-        <v>1256.466599063484</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>945.3211272158186</v>
+        <v>966.2257295162909</v>
       </c>
       <c r="F20" t="n">
-        <v>608.9780031767897</v>
+        <v>629.882605477262</v>
       </c>
       <c r="G20" t="n">
-        <v>268.548333772364</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,28 +5750,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5792,10 +5792,10 @@
         <v>2445.189289933533</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.366312423032</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.366312423032</v>
+        <v>2167.270914723505</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085897</v>
+        <v>569.1142151877568</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312614</v>
+        <v>474.8208130104285</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695043</v>
+        <v>399.3469543486715</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1239243376898</v>
+        <v>326.076641516857</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695255</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G22" t="n">
         <v>160.769418894823</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325945</v>
+        <v>89.19501286325942</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,13 +5911,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,7 +5929,7 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
         <v>1912.106871596599</v>
@@ -5950,10 +5950,10 @@
         <v>1038.663750628641</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812021</v>
+        <v>822.2696976603693</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882507</v>
+        <v>676.1198992674178</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>636.7479351410525</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366276</v>
+        <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9799091902984</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014122438707</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.546027110632</v>
+        <v>1580.642068665179</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.324844169414</v>
+        <v>2127.420885723961</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.297315048751</v>
+        <v>2966.794510129003</v>
       </c>
       <c r="P23" t="n">
-        <v>3346.071681405929</v>
+        <v>3361.568876486182</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.358043161611</v>
+        <v>3609.855238241864</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798668</v>
+        <v>3668.872304798666</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076342</v>
+        <v>3633.22441707634</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
         <v>3323.001754235557</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4091841448986</v>
+        <v>948.4091841448976</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9561548637716</v>
+        <v>773.9561548637706</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0217452025204</v>
+        <v>625.0217452025195</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7842901970648</v>
+        <v>465.7842901970639</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2497322239498</v>
+        <v>319.249732223949</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565679</v>
+        <v>182.8866320565678</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443542</v>
+        <v>92.38473769443537</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547155865909</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669381</v>
+        <v>405.318914566938</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796035</v>
+        <v>772.0170748796033</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656374</v>
+        <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074429</v>
+        <v>2103.777723074428</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550532</v>
+        <v>2414.277314550531</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.918872197131</v>
+        <v>2571.91887219713</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774518789647</v>
+        <v>2571.774518789646</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336632283127</v>
+        <v>2442.336632283126</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693631960982</v>
+        <v>2249.693631960981</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.625785095398</v>
+        <v>2021.625785095397</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473676863655</v>
+        <v>1786.473676863654</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236320135453</v>
+        <v>1532.236320135452</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38481992992</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624521164967</v>
+        <v>1116.624521164966</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723796</v>
+        <v>575.9795448515465</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950513</v>
+        <v>481.6861426742183</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2595668332942</v>
+        <v>406.2122840124613</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9892540014797</v>
+        <v>332.9419711806469</v>
       </c>
       <c r="F25" t="n">
-        <v>323.742087254148</v>
+        <v>260.6948044333152</v>
       </c>
       <c r="G25" t="n">
-        <v>230.6820313794456</v>
+        <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>159.107625347882</v>
+        <v>96.0603425270493</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
@@ -6151,7 +6151,7 @@
         <v>322.4872614917853</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470599402814</v>
+        <v>639.0470599402813</v>
       </c>
       <c r="M25" t="n">
         <v>983.2041055398304</v>
@@ -6187,10 +6187,10 @@
         <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>892.182310144992</v>
+        <v>829.135027324159</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520406</v>
+        <v>682.9852289312075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659143</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
         <v>779.7865456803188</v>
@@ -6321,7 +6321,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6446,52 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3336.058965299584</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302709</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>1045.699547878784</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1496.733761127193</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2030.265665799118</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6938,22 +6938,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2735.569460712893</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3238.54193159223</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3633.316297949408</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603402</v>
@@ -7014,25 +7014,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,31 +7114,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7172,43 +7172,43 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,13 +7330,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7345,19 +7345,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570351</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863831</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7564,16 +7564,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7637,52 +7637,52 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2623.499963990483</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3126.47243486982</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3521.246801226998</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764238</v>
+        <v>212.1614152764232</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188447</v>
+        <v>225.930489318844</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603989</v>
+        <v>219.4018707603981</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030244</v>
+        <v>218.2916099030236</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661495</v>
+        <v>219.5965380661487</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111185</v>
+        <v>222.2700605111179</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357296</v>
+        <v>123.6869003357294</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344811</v>
+        <v>132.4563458344807</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915385</v>
+        <v>131.3134574915379</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437706</v>
+        <v>133.68421914377</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511139</v>
+        <v>122.6682558511133</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891804</v>
+        <v>134.6617264891798</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357713</v>
+        <v>127.6062572357708</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369109</v>
+        <v>135.7248343369106</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970312</v>
+        <v>130.7280129970309</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216064</v>
+        <v>134.5431653216061</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145265</v>
+        <v>123.4071347145262</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663804</v>
+        <v>134.5047345663801</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299174</v>
+        <v>134.3465531299172</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>339.7991449754601</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>15.65373240429717</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>342.9371040273952</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544165</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473905</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>19.40311602546643</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>52.18875040233544</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.13839585591369</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544135</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.3902622431539</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369552</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>190.1931274337634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>15.42981636587206</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>65.6200732733254</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535778</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>134.3852442500711</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26654546369566</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>55.36334050142905</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>73.25426982201419</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.910763857457</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>48.42548789971678</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.35238799417675</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>79.18123646338657</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>52.25045331283804</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8559055270621</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>20.69555627746891</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129808</v>
+        <v>37.20239425505208</v>
       </c>
     </row>
     <row r="21">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1102240.621812732</v>
+        <v>1102240.621812733</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1161754.799925509</v>
+        <v>1161754.79992551</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188893</v>
       </c>
       <c r="C2" t="n">
         <v>307230.4875285652</v>
       </c>
       <c r="D2" t="n">
-        <v>307232.8295701757</v>
+        <v>307232.8295701755</v>
       </c>
       <c r="E2" t="n">
-        <v>273578.2088448149</v>
+        <v>273578.2088448147</v>
       </c>
       <c r="F2" t="n">
-        <v>273578.2088448148</v>
+        <v>273578.2088448147</v>
       </c>
       <c r="G2" t="n">
-        <v>297949.5050106913</v>
+        <v>297949.5050106912</v>
       </c>
       <c r="H2" t="n">
-        <v>297949.5050106915</v>
+        <v>297949.5050106912</v>
       </c>
       <c r="I2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="J2" t="n">
-        <v>307890.6636991065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307890.6636991065</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="P2" t="n">
         <v>307890.6636991063</v>
-      </c>
-      <c r="M2" t="n">
-        <v>307890.6636991063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>307890.6636991065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307890.6636991064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991065</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945314</v>
+        <v>14118.19859945417</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072317</v>
+        <v>16714.64353072221</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487383</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905854</v>
+        <v>22820.44161905842</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728108</v>
+        <v>25410.44272728124</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>7.727385309408418e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.154320027</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210902</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210902</v>
       </c>
       <c r="G4" t="n">
         <v>74613.22686521035</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521034</v>
+        <v>74613.22686521041</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913911</v>
+        <v>85473.00365913907</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646601</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112991</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657605</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657605</v>
+        <v>76569.58029657604</v>
       </c>
       <c r="G5" t="n">
         <v>80518.7330569645</v>
@@ -26488,22 +26488,22 @@
         <v>80518.7330569645</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144485</v>
+        <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157297.4824237865</v>
+        <v>-157301.8960016547</v>
       </c>
       <c r="C6" t="n">
-        <v>-167592.4579820449</v>
+        <v>-167596.8591565159</v>
       </c>
       <c r="D6" t="n">
-        <v>-165467.8686840974</v>
+        <v>-165472.2542449562</v>
       </c>
       <c r="E6" t="n">
-        <v>-957745.6800257907</v>
+        <v>-957974.4297248191</v>
       </c>
       <c r="F6" t="n">
-        <v>159423.1614461297</v>
+        <v>159194.4117471007</v>
       </c>
       <c r="G6" t="n">
-        <v>105237.4357936426</v>
+        <v>105171.1614023862</v>
       </c>
       <c r="H6" t="n">
-        <v>142817.5450885166</v>
+        <v>142751.2706972604</v>
       </c>
       <c r="I6" t="n">
-        <v>113860.8348194638</v>
+        <v>113860.8348194639</v>
       </c>
       <c r="J6" t="n">
-        <v>112346.9156905534</v>
+        <v>112346.915690553</v>
       </c>
       <c r="K6" t="n">
-        <v>137757.3584178344</v>
+        <v>137757.3584178343</v>
       </c>
       <c r="L6" t="n">
         <v>100177.2491229603</v>
       </c>
       <c r="M6" t="n">
-        <v>-69431.20987423875</v>
+        <v>-69431.20987423866</v>
       </c>
       <c r="N6" t="n">
-        <v>137757.3584178344</v>
+        <v>137757.3584178342</v>
       </c>
       <c r="O6" t="n">
-        <v>137757.3584178344</v>
+        <v>137757.3584178341</v>
       </c>
       <c r="P6" t="n">
-        <v>137757.3584178344</v>
+        <v>137757.3584178342</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953716</v>
+        <v>15.50424729953829</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26808,16 +26808,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996671</v>
+        <v>917.2180761996666</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
         <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26826,10 +26826,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953716</v>
+        <v>15.50424729953829</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958816</v>
+        <v>19.51701341958703</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737418</v>
+        <v>85.81662079737373</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894737</v>
+        <v>97.11838500894817</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.072964971349</v>
+        <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593852347</v>
+        <v>6.659224593851961</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116784428</v>
+        <v>3.259908116783937</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886691</v>
+        <v>145.9538669886688</v>
       </c>
       <c r="S5" t="n">
-        <v>207.599755876343</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27710,10 +27710,10 @@
         <v>137.3101684048682</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9133654388212</v>
+        <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234558</v>
+        <v>88.24844095234549</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573514</v>
+        <v>98.08728580573498</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837155</v>
+        <v>225.9391880837154</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27795,10 +27795,10 @@
         <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997604</v>
+        <v>91.3825156699759</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263556</v>
+        <v>19.02122493263532</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946427</v>
+        <v>83.8209019094641</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059644</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029852</v>
+        <v>223.5293580029851</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307284</v>
+        <v>11.47954295044738</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.47954295044859</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F22" t="n">
-        <v>11.47954295044855</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307284</v>
+        <v>11.47954295044806</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I25" t="n">
-        <v>11.47954295044856</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307284</v>
+        <v>11.47954295044741</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307284</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859307</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
         <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859255</v>
@@ -30660,7 +30660,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
         <v>46.97513661859255</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235994834</v>
+        <v>0.0623286323599529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563212</v>
+        <v>0.6383231061563678</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599056911</v>
+        <v>2.402924599057086</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760171</v>
+        <v>5.290064760760557</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768556786</v>
+        <v>7.928435768557364</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651142556</v>
+        <v>9.835925651143274</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687379</v>
+        <v>10.94436246687459</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356649</v>
+        <v>11.1214536935673</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553726</v>
+        <v>10.50167335553802</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151028</v>
+        <v>8.962935244151684</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760377</v>
+        <v>6.730791097760868</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480609</v>
+        <v>3.915250952480894</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902324</v>
+        <v>1.420313709902428</v>
       </c>
       <c r="T5" t="n">
-        <v>0.272843588155674</v>
+        <v>0.2728435881556939</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588795866</v>
+        <v>0.004986290588796231</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240069</v>
+        <v>0.03334875834240313</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976752909</v>
+        <v>0.3220787976753144</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069497</v>
+        <v>1.148191899069581</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937076</v>
+        <v>3.150726330937306</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139877922</v>
+        <v>5.385093139878316</v>
       </c>
       <c r="L6" t="n">
-        <v>7.24092228833573</v>
+        <v>7.240922288336258</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778247752</v>
+        <v>8.449814778248369</v>
       </c>
       <c r="N6" t="n">
-        <v>8.67345623221938</v>
+        <v>8.673456232220012</v>
       </c>
       <c r="O6" t="n">
-        <v>7.93451795526408</v>
+        <v>7.934517955264659</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178558953</v>
+        <v>6.368150178559418</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110657</v>
+        <v>4.256939749110968</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908001</v>
+        <v>2.070548346908152</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595616966</v>
+        <v>0.6194385595617419</v>
       </c>
       <c r="T6" t="n">
-        <v>0.134418898757308</v>
+        <v>0.1344188987573178</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368467</v>
+        <v>0.002193997259368627</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687029</v>
+        <v>0.02795847873687233</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696288</v>
+        <v>0.2485762927696469</v>
       </c>
       <c r="I7" t="n">
-        <v>0.840787706014245</v>
+        <v>0.8407877060143063</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696729</v>
+        <v>1.976664446696874</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247293</v>
+        <v>3.24826689324753</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207061</v>
+        <v>4.156663284207365</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998676</v>
+        <v>4.382618625998996</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750706708</v>
+        <v>4.278409750707021</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462359</v>
+        <v>3.951803885462647</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230202</v>
+        <v>3.381450919230449</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230111</v>
+        <v>2.341141342230282</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205095</v>
+        <v>1.257114871205187</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339870939</v>
+        <v>0.4872400339871295</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546029912</v>
+        <v>0.1194589546029999</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102018</v>
+        <v>0.001525007931102129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.461131202644</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754661</v>
+        <v>72.49963293754654</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
         <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7781624920205</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q13" t="n">
         <v>105.315454862374</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754654</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
         <v>374.5545957179642</v>
@@ -35817,7 +35817,7 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P16" t="n">
         <v>261.8782874695908</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687142</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>847.8521458636792</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>75.26693094652195</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597733</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>850.9901049156146</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>675.9826703737881</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776173</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>418.1651022448381</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>614.4119707098149</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>302.9830552060549</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887912</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37482,7 +37482,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>80.75159439813847</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412309</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737854</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q44" t="n">
-        <v>416.1845670468734</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
